--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437838.0646389918</v>
+        <v>439542.8206532585</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5668630.558955723</v>
+        <v>5668630.558955722</v>
       </c>
     </row>
     <row r="11">
@@ -701,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y2" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,25 +743,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>16.53692327612132</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -905,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -993,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>68.59860547407823</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1130,73 +1132,73 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D8" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>112.2956661798583</v>
       </c>
       <c r="C9" t="n">
-        <v>45.28887413297245</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1224,16 +1226,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1391,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -1421,13 +1423,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>72.47049842454879</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1470,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X12" t="n">
-        <v>84.56713651463427</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1649,31 +1651,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>156.4327184930647</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1731,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -1746,7 +1748,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1841,76 +1843,76 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>100.3796369526212</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1983,7 +1985,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2078,73 +2080,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>70.69572208711314</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2223,7 +2225,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1.944519418634053</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2360,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.42556848774752</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
@@ -2381,10 +2383,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
     </row>
     <row r="24">
@@ -2394,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>143.504946809361</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>82.71243518046262</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -2442,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2561,17 +2563,17 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
@@ -2597,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,19 +2684,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>47.28737149424366</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2795,7 +2797,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2807,58 +2809,58 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,28 +2873,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>79.78832327157356</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>95.23425580603923</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2934,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3086,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3114,22 +3116,22 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.44050690301</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>155.5825568932142</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3205,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3263,73 +3265,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>111.5490748536004</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>10.64098622951609</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3430,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -3545,19 +3547,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>132.876626399942</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>123.8814522403791</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>59.10628614960025</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3737,76 +3739,76 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
+      <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>83.12218148371484</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3882,10 +3884,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="43">
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>222.3396163656984</v>
       </c>
       <c r="D44" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,16 +3991,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4056,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4101,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>222.3082294474576</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4147,43 +4149,43 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4349,28 +4351,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V2" t="n">
-        <v>122.6530896684844</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W2" t="n">
-        <v>122.6530896684844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X2" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
         <v>19.28114311021272</v>
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>528.0732384820715</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>528.0732384820715</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>379.1388288208202</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>379.1388288208202</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4419,7 +4421,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>735.8335372470253</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>735.8335372470253</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>735.8335372470253</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>528.0732384820715</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4483,10 +4485,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4595,22 +4597,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>238.2612061051368</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>238.2612061051368</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>89.32679644388554</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>89.32679644388554</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>89.32679644388554</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>89.32679644388554</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>89.32679644388554</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W6" t="n">
-        <v>446.0215048700907</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X6" t="n">
-        <v>446.0215048700907</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>238.2612061051368</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
         <v>136.0777814360265</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
         <v>19.28114311021272</v>
@@ -4838,16 +4840,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>862.8876260635219</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y9" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4981,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T11" t="n">
-        <v>518.2486856454962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U11" t="n">
-        <v>518.2486856454962</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V11" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W11" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X11" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>502.6601697108322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5127,13 +5129,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5142,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X12" t="n">
-        <v>878.6358054958541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>670.8755067309003</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="14">
@@ -5297,28 +5299,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T14" t="n">
-        <v>591.4512093066566</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U14" t="n">
-        <v>591.4512093066566</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V14" t="n">
-        <v>348.0024326625565</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W14" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
         <v>19.28114311021272</v>
@@ -5331,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>500.6814290152826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>326.2283997341556</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>177.2939900729043</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
         <v>19.28114311021272</v>
@@ -5367,40 +5369,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>500.6814290152826</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>500.6814290152826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>500.6814290152826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>500.6814290152826</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W17" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X17" t="n">
-        <v>506.1786963984129</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5598,16 +5600,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5631,13 +5633,13 @@
         <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="19">
@@ -5698,7 +5700,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5789,13 +5791,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>340.2687303644548</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C21" t="n">
-        <v>165.8157010833278</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D21" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5837,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>791.4778057735086</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>791.4778057735086</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>791.4778057735086</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>791.4778057735086</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>548.0290291294086</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X21" t="n">
-        <v>548.0290291294086</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y21" t="n">
-        <v>340.2687303644548</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="22">
@@ -6008,28 +6010,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="Y23" t="n">
         <v>19.28114311021272</v>
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>132.6502787026334</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C24" t="n">
-        <v>132.6502787026334</v>
+        <v>660.701031422288</v>
       </c>
       <c r="D24" t="n">
-        <v>132.6502787026334</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E24" t="n">
-        <v>132.6502787026334</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F24" t="n">
-        <v>132.6502787026334</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G24" t="n">
         <v>132.6502787026334</v>
@@ -6078,10 +6080,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V24" t="n">
-        <v>728.9050472788936</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W24" t="n">
-        <v>485.4562706347935</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X24" t="n">
-        <v>277.6047704292607</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y24" t="n">
-        <v>277.6047704292607</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
         <v>19.28114311021272</v>
@@ -6169,28 +6171,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C26" t="n">
-        <v>477.1596022224361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D26" t="n">
-        <v>477.1596022224361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E26" t="n">
-        <v>233.7108255783361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F26" t="n">
-        <v>233.7108255783361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>332.4649978087242</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6306,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>916.292133799279</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>916.292133799279</v>
       </c>
       <c r="U27" t="n">
-        <v>913.4938269565423</v>
+        <v>916.292133799279</v>
       </c>
       <c r="V27" t="n">
-        <v>678.3417187247995</v>
+        <v>916.292133799279</v>
       </c>
       <c r="W27" t="n">
-        <v>434.8929420806995</v>
+        <v>916.292133799279</v>
       </c>
       <c r="X27" t="n">
-        <v>227.0414418751666</v>
+        <v>708.4406335937462</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>500.6803348287922</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
         <v>19.28114311021272</v>
@@ -6406,28 +6408,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6445,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6500,10 +6502,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
         <v>506.1786963984129</v>
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>284.0338015341832</v>
+        <v>385.8949250843803</v>
       </c>
       <c r="C30" t="n">
-        <v>109.5807722530562</v>
+        <v>385.8949250843803</v>
       </c>
       <c r="D30" t="n">
-        <v>109.5807722530562</v>
+        <v>385.8949250843803</v>
       </c>
       <c r="E30" t="n">
-        <v>109.5807722530562</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F30" t="n">
-        <v>109.5807722530562</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G30" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6549,13 +6551,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>867.860937524738</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>867.860937524738</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>867.860937524738</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>867.860937524738</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>867.860937524738</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W30" t="n">
-        <v>867.860937524738</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X30" t="n">
-        <v>660.0094373192052</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y30" t="n">
-        <v>452.2491385542513</v>
+        <v>554.1102621044483</v>
       </c>
     </row>
     <row r="31">
@@ -6646,16 +6648,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>223.6192102101089</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>429.2157613146156</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>282.6812033415006</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>143.9503779241161</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58124233169541</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>705.7335281915883</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>470.5814199598456</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W33" t="n">
-        <v>227.1326433157456</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
         <v>19.28114311021272</v>
@@ -6877,31 +6879,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>248.3115976704407</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C36" t="n">
-        <v>248.3115976704407</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D36" t="n">
-        <v>248.3115976704407</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E36" t="n">
-        <v>248.3115976704407</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F36" t="n">
-        <v>248.3115976704407</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,16 +7022,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>248.3115976704407</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W36" t="n">
-        <v>248.3115976704407</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X36" t="n">
-        <v>248.3115976704407</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y36" t="n">
-        <v>248.3115976704407</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="37">
@@ -7078,10 +7080,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
         <v>829.5248650203655</v>
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C38" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D38" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E38" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F38" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
         <v>231.8830517671884</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>730.9364916182745</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>556.4834623371476</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>407.5490526758962</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7254,13 +7256,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
         <v>725.4530095217538</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V39" t="n">
-        <v>526.7184526376595</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W39" t="n">
-        <v>526.7184526376595</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X39" t="n">
-        <v>318.8669524321267</v>
+        <v>730.9364916182745</v>
       </c>
       <c r="Y39" t="n">
-        <v>318.8669524321267</v>
+        <v>730.9364916182745</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7442,19 +7444,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7494,16 +7496,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7521,19 +7523,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>485.4562706347935</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
-        <v>277.6959718698396</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>527.5764290961142</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C44" t="n">
-        <v>527.5764290961142</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T44" t="n">
-        <v>527.5764290961142</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U44" t="n">
-        <v>527.5764290961142</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V44" t="n">
-        <v>527.5764290961142</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W44" t="n">
-        <v>527.5764290961142</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X44" t="n">
-        <v>527.5764290961142</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y44" t="n">
-        <v>527.5764290961142</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="45">
@@ -7701,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
         <v>19.28114311021272</v>
@@ -7728,49 +7730,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y45" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -7831,25 +7833,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8067,10 +8069,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>198.1125443848066</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8547,7 +8549,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8775,7 +8777,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -8784,7 +8786,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9015,7 +9017,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,19 +9248,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9483,7 +9485,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9492,13 +9494,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,13 +9728,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,16 +9965,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>242.4075215744184</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,16 +10199,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10428,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
@@ -10440,13 +10442,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,19 +10670,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11142,19 +11144,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22589,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y2" t="n">
-        <v>283.8997115633647</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22629,25 +22631,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>128.5322891172626</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22793,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22835,13 +22837,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22866,7 +22868,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22881,10 +22883,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>20.79802737733685</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,19 +22910,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22954,13 +22956,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>150.4326837156464</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22981,7 +22983,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23078,13 +23080,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -23097,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>54.23751747000904</v>
       </c>
       <c r="C9" t="n">
-        <v>127.4196248553433</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23112,16 +23114,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23197,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23279,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -23309,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.6253511395826</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23324,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23358,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X12" t="n">
-        <v>121.2058486888432</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23470,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23537,31 +23539,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>328.0572133466886</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>301.8181508768923</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23574,13 +23576,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>1.212361962336274</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23619,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23634,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23750,10 +23752,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>110.0962526177847</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23829,7 +23831,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>85.5626750829564</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23871,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23938,10 +23940,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23966,31 +23968,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24029,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24093,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>100.9874490167247</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24111,7 +24113,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>203.8284657848434</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24248,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>156.5945010984978</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
@@ -24269,10 +24271,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>382.9726225988569</v>
       </c>
     </row>
     <row r="24">
@@ -24282,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>23.02823684050634</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>64.73263038417613</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24330,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24376,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24449,16 +24451,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>203.0173518716929</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,10 +24487,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24570,19 +24572,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>124.3957996095942</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24683,7 +24685,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24695,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24740,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>157.4457150350269</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24759,28 +24761,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>77.85675718382738</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4.923578346603904</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24822,7 +24824,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24974,16 +24976,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25002,22 +25004,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>78.95612594840507</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>70.3588251877606</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>132.8070558482636</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25093,13 +25095,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>44.5329991677731</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25117,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>182.397745374651</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,25 +25201,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>54.98410879626694</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>222.1596009199092</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25318,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25406,7 +25408,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>337.6653060427309</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25433,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>118.4690265078945</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>42.65173140948825</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25518,22 +25520,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>146.6666990538772</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25643,7 +25645,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25682,19 +25684,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>157.445715035027</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>83.4110021661525</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,7 +25763,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25770,10 +25772,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="43">
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25849,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25865,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>142.9332754053091</v>
       </c>
       <c r="D44" t="n">
-        <v>333.4992862499586</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25916,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25944,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>142.9094900234331</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25989,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>3.633152633517255</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26071,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490233.5289125029</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="C2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="D2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="F2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="G2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="H2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="I2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="J2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="K2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="L2" t="n">
+        <v>99696.40351879931</v>
+      </c>
+      <c r="M2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="E2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="F2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="G2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="O2" t="n">
         <v>99696.4035187994</v>
-      </c>
-      <c r="I2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879939</v>
       </c>
       <c r="P2" t="n">
         <v>99696.40351879942</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
         <v>8547.111069342402</v>
@@ -26427,7 +26429,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26451,7 +26453,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
         <v>8547.111069342402</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37901.40784585247</v>
+        <v>-37901.40784585243</v>
       </c>
       <c r="C6" t="n">
+        <v>42868.02368569533</v>
+      </c>
+      <c r="D6" t="n">
         <v>42868.02368569531</v>
       </c>
-      <c r="D6" t="n">
-        <v>42868.02368569532</v>
-      </c>
       <c r="E6" t="n">
+        <v>76495.62368569533</v>
+      </c>
+      <c r="F6" t="n">
+        <v>76495.6236856953</v>
+      </c>
+      <c r="G6" t="n">
+        <v>76495.62368569533</v>
+      </c>
+      <c r="H6" t="n">
+        <v>76495.6236856953</v>
+      </c>
+      <c r="I6" t="n">
+        <v>76495.62368569529</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13435.68108658911</v>
+      </c>
+      <c r="K6" t="n">
+        <v>76495.62368569529</v>
+      </c>
+      <c r="L6" t="n">
+        <v>76495.62368569525</v>
+      </c>
+      <c r="M6" t="n">
         <v>76495.62368569532</v>
       </c>
-      <c r="F6" t="n">
-        <v>76495.62368569532</v>
-      </c>
-      <c r="G6" t="n">
-        <v>76495.62368569532</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="N6" t="n">
+        <v>76495.62368569535</v>
+      </c>
+      <c r="O6" t="n">
         <v>76495.62368569533</v>
-      </c>
-      <c r="I6" t="n">
-        <v>76495.62368569533</v>
-      </c>
-      <c r="J6" t="n">
-        <v>13435.68108658904</v>
-      </c>
-      <c r="K6" t="n">
-        <v>76495.62368569532</v>
-      </c>
-      <c r="L6" t="n">
-        <v>76495.62368569533</v>
-      </c>
-      <c r="M6" t="n">
-        <v>76495.62368569533</v>
-      </c>
-      <c r="N6" t="n">
-        <v>76495.62368569533</v>
-      </c>
-      <c r="O6" t="n">
-        <v>76495.62368569532</v>
       </c>
       <c r="P6" t="n">
         <v>76495.62368569535</v>
@@ -34705,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34787,10 +34789,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>99.8112771299739</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34948,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35027,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>55.51629994036219</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35267,7 +35269,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35495,7 +35497,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,7 +35506,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35653,7 +35655,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35735,7 +35737,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35744,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36203,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36212,13 +36214,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,13 +36448,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36683,16 +36685,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>99.8112771299739</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37148,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37160,13 +37162,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37862,19 +37864,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38026,7 +38028,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>439542.8206532585</v>
+        <v>337290.5109663217</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006066</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>69.03881051849277</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -837,43 +837,43 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>164.1465816784671</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>35.40726547353833</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1177,28 +1177,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>112.2956661798583</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>112.3289263072337</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>90.50278177497624</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -1511,7 +1511,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1651,25 +1651,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
-        <v>241.0142888776591</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="W14" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>89.29749682216328</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>100.3796369526212</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1900,7 +1900,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>179.4356208866987</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2080,73 +2080,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2213,19 +2213,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>82.69355372315663</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>1.944519418634053</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,16 +2362,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,19 +2402,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>82.71243518046262</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,58 +2569,58 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>47.28737149424366</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2727,43 +2727,43 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2794,73 +2794,73 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2879,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>79.78832327157356</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3116,22 +3116,22 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>10.44050690301</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>55.57566235103583</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -3167,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="V35" t="n">
         <v>241.0142888776591</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>111.5490748536004</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3401,13 +3401,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3438,55 +3438,55 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>132.876626399942</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3584,25 +3584,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>59.10628614960025</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>62.43486741948623</v>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.05241763862477</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="43">
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>222.3396163656984</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>222.3082294474576</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="46">
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4363,19 +4363,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="D3" t="n">
         <v>19.28114311021272</v>
@@ -4415,46 +4415,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
         <v>19.28114311021272</v>
@@ -4521,19 +4521,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4603,16 +4603,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>185.0857710682603</v>
       </c>
       <c r="C6" t="n">
         <v>19.28114311021272</v>
@@ -4655,16 +4655,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>928.2922408909005</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>726.1056462496665</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>497.8820279860555</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V6" t="n">
-        <v>262.7299197543128</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4764,13 +4764,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="Y8" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>648.4405950311615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
         <v>19.28114311021272</v>
@@ -4886,13 +4886,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>761.8705608694022</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>761.8705608694022</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W9" t="n">
-        <v>761.8705608694022</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X9" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4980,19 +4980,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
         <v>19.28114311021272</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5065,28 +5065,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>132.7447050367114</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F12" t="n">
         <v>19.28114311021272</v>
@@ -5126,46 +5126,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5217,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>527.5764290961142</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U14" t="n">
-        <v>284.1276524520142</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V14" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5360,49 +5360,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>873.8576637710773</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="16">
@@ -5454,25 +5454,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
         <v>19.28114311021272</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V17" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23.90796037760316</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C18" t="n">
-        <v>23.90796037760316</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D18" t="n">
-        <v>23.90796037760316</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E18" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
         <v>304.2053859195205</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W18" t="n">
-        <v>23.90796037760316</v>
+        <v>554.5854353412691</v>
       </c>
       <c r="X18" t="n">
-        <v>23.90796037760316</v>
+        <v>346.7339351357363</v>
       </c>
       <c r="Y18" t="n">
-        <v>23.90796037760316</v>
+        <v>346.7339351357363</v>
       </c>
     </row>
     <row r="19">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E19" t="n">
         <v>19.28114311021272</v>
@@ -5703,22 +5703,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5782,22 +5782,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X20" t="n">
-        <v>477.1596022224361</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5840,16 +5840,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X21" t="n">
-        <v>718.6442178376129</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>510.883919072659</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5937,7 +5937,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9257720901863</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V23" t="n">
-        <v>509.4769954460863</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W23" t="n">
-        <v>266.0282188019862</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X23" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>660.701031422288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>660.701031422288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6071,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>660.701031422288</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>660.701031422288</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>660.701031422288</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>660.701031422288</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>660.701031422288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
         <v>19.28114311021272</v>
@@ -6168,31 +6168,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>315.6850394389064</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C26" t="n">
-        <v>315.6850394389064</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D26" t="n">
-        <v>315.6850394389064</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E26" t="n">
-        <v>315.6850394389064</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F26" t="n">
-        <v>315.6850394389064</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>802.5825927271064</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V26" t="n">
-        <v>559.1338160830064</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W26" t="n">
-        <v>559.1338160830064</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X26" t="n">
-        <v>315.6850394389064</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y26" t="n">
-        <v>315.6850394389064</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>332.4649978087242</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6308,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>916.292133799279</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>916.292133799279</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>916.292133799279</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>916.292133799279</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W27" t="n">
-        <v>916.292133799279</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X27" t="n">
-        <v>708.4406335937462</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>500.6803348287922</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
         <v>19.28114311021272</v>
@@ -6411,25 +6411,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>385.8949250843803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>385.8949250843803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>385.8949250843803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6551,13 +6551,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>761.8705608694022</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W30" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X30" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>554.1102621044483</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6648,16 +6648,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>262.7299197543128</v>
@@ -6730,22 +6730,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>429.2157613146156</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>282.6812033415006</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9503779241161</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>30.58124233169541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,19 +6785,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>907.9201228328222</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V33" t="n">
-        <v>588.4532163200711</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W33" t="n">
-        <v>588.4532163200711</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X33" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6879,31 +6879,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>960.7588564629629</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>649.1947276839472</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C36" t="n">
-        <v>474.7416984028202</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>325.807288741569</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
         <v>20.03527576299844</v>
@@ -7019,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7049,19 +7049,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>761.8705608694022</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W36" t="n">
-        <v>761.8705608694022</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X36" t="n">
-        <v>761.8705608694022</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y36" t="n">
-        <v>761.8705608694022</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>231.8830517671884</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C38" t="n">
-        <v>231.8830517671884</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D38" t="n">
-        <v>231.8830517671884</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E38" t="n">
-        <v>231.8830517671884</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F38" t="n">
-        <v>231.8830517671884</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G38" t="n">
-        <v>231.8830517671884</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7207,19 +7207,19 @@
         <v>366.1018663125844</v>
       </c>
       <c r="U38" t="n">
-        <v>231.8830517671884</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V38" t="n">
-        <v>231.8830517671884</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W38" t="n">
-        <v>231.8830517671884</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X38" t="n">
-        <v>231.8830517671884</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y38" t="n">
-        <v>231.8830517671884</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>730.9364916182745</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>556.4834623371476</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>407.5490526758962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7256,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W39" t="n">
-        <v>790.6398109613051</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X39" t="n">
-        <v>730.9364916182745</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="Y39" t="n">
-        <v>730.9364916182745</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y41" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
         <v>964.0571555106362</v>
@@ -7535,7 +7535,7 @@
         <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>499.3853800778592</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C44" t="n">
         <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
         <v>31.35113235729608</v>
@@ -7675,25 +7675,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>499.3853800778592</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>499.3853800778592</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>499.3853800778592</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y44" t="n">
-        <v>499.3853800778592</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7736,13 +7736,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>262.7299197543128</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>262.7299197543128</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I46" t="n">
         <v>19.28114311021272</v>
@@ -7833,25 +7833,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>241.9453110519923</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>231.1529892133073</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,13 +9965,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>382.6009056104135</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10199,16 +10199,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10433,10 +10433,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10445,10 +10445,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11153,7 +11153,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>255.9771075721939</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11384,16 +11384,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22549,10 +22549,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22603,16 +22603,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>78.40625504614599</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,7 +22688,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22725,7 +22725,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22843,13 +22843,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>8.56191730984861</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22913,19 +22913,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>136.2759056302995</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23032,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23065,28 +23065,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -23099,19 +23099,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54.23751747000904</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23305,19 +23305,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U11" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>215.4233321629012</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23345,10 +23345,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>67.1422986804247</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23466,7 +23466,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23539,25 +23539,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>243.3324706909737</v>
       </c>
       <c r="W14" t="n">
-        <v>328.0572133466886</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>136.6438852588115</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23746,16 +23746,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>110.0962526177847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23819,7 +23819,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23831,10 +23831,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>85.5626750829564</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>72.25936227422093</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24022,19 +24022,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24101,19 +24101,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>150.1070334262686</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>203.8284657848434</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,16 +24250,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24268,13 +24268,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>149.5179749360441</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.9726225988569</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24290,19 +24290,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>64.73263038417613</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>132.8070558482636</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24408,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>362.8771690273874</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24487,28 +24487,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24536,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24572,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>124.3957996095942</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24651,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24697,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,31 +24724,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>316.5592023139553</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24767,13 +24767,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>77.85675718382738</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,13 +24922,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
@@ -24970,7 +24970,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24979,10 +24979,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>139.5272757214993</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25004,22 +25004,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>78.95612594840507</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>116.107508752802</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25055,13 +25055,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8070558482636</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25119,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>146.6038018839531</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>61.00025583355162</v>
       </c>
       <c r="V35" t="n">
         <v>86.73796959247585</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>54.98410879626694</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>138.0478248410352</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25289,13 +25289,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25411,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>108.137662477717</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>118.4690265078945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25472,25 +25472,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25520,25 +25520,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>146.6666990538772</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>143.2478283578181</v>
       </c>
     </row>
     <row r="40">
@@ -25569,7 +25569,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25608,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25684,10 +25684,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>176.6302781386796</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="43">
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>142.9332754053091</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25915,7 +25915,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25924,16 +25924,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>179.3857036041842</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>3.633152633517255</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="46">
@@ -26043,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26073,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="C2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="C2" t="n">
-        <v>99696.4035187994</v>
-      </c>
       <c r="D2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="E2" t="n">
         <v>99696.4035187994</v>
       </c>
       <c r="F2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="G2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="G2" t="n">
-        <v>99696.4035187994</v>
       </c>
       <c r="H2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="I2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="J2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="J2" t="n">
-        <v>99696.40351879942</v>
-      </c>
       <c r="K2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.40351879931</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="O2" t="n">
         <v>99696.4035187994</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.4035187994</v>
       </c>
     </row>
     <row r="3">
@@ -26420,7 +26420,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="D4" t="n">
         <v>8547.111069342402</v>
@@ -26459,7 +26459,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37901.40784585243</v>
+        <v>-50119.41846589286</v>
       </c>
       <c r="C6" t="n">
-        <v>42868.02368569533</v>
+        <v>30650.01306565484</v>
       </c>
       <c r="D6" t="n">
-        <v>42868.02368569531</v>
+        <v>30650.01306565482</v>
       </c>
       <c r="E6" t="n">
-        <v>76495.62368569533</v>
+        <v>64277.61306565487</v>
       </c>
       <c r="F6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.6130656548</v>
       </c>
       <c r="G6" t="n">
-        <v>76495.62368569533</v>
+        <v>64277.61306565483</v>
       </c>
       <c r="H6" t="n">
-        <v>76495.6236856953</v>
+        <v>64277.61306565484</v>
       </c>
       <c r="I6" t="n">
-        <v>76495.62368569529</v>
+        <v>64277.61306565484</v>
       </c>
       <c r="J6" t="n">
-        <v>13435.68108658911</v>
+        <v>1217.67046654859</v>
       </c>
       <c r="K6" t="n">
-        <v>76495.62368569529</v>
+        <v>64277.61306565484</v>
       </c>
       <c r="L6" t="n">
-        <v>76495.62368569525</v>
+        <v>64277.61306565487</v>
       </c>
       <c r="M6" t="n">
-        <v>76495.62368569532</v>
+        <v>64277.6130656548</v>
       </c>
       <c r="N6" t="n">
-        <v>76495.62368569535</v>
+        <v>64277.61306565484</v>
       </c>
       <c r="O6" t="n">
-        <v>76495.62368569533</v>
+        <v>64277.61306565487</v>
       </c>
       <c r="P6" t="n">
-        <v>76495.62368569535</v>
+        <v>64277.61306565486</v>
       </c>
     </row>
   </sheetData>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35184,7 +35184,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35494,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>99.81127712997396</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>99.81127712997396</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -36208,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36685,13 +36685,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37165,10 +37165,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37873,7 +37873,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>113.3808631277494</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337290.5109663217</v>
+        <v>429292.3595494201</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -658,70 +658,70 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.03881051849277</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -800,13 +800,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
     </row>
     <row r="4">
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -913,58 +913,58 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>164.1465816784671</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>62.86349518004438</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>124.0311210528751</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1375,67 +1375,67 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U11" t="n">
+      <c r="X11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>90.50278177497624</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1514,10 +1514,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>84.41978777916125</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>89.29749682216328</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1751,10 +1751,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>102.3382270926889</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>179.4356208866987</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2010,46 +2010,46 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2083,28 +2083,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,28 +2125,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2213,13 +2213,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>82.69355372315663</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="22">
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2560,14 +2560,14 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2599,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -2614,7 +2614,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2687,22 +2687,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>125.2226902263468</v>
       </c>
       <c r="X27" t="n">
-        <v>35.40726547353844</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -2851,7 +2851,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>96.52468151912586</v>
+        <v>82.69355372315663</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3043,11 +3043,11 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>98.10479885422595</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3158,19 +3158,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>55.57566235103583</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
     </row>
     <row r="35">
@@ -3265,14 +3265,14 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
@@ -3280,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>190.3453970742849</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>34.66067414728059</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3410,7 +3410,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
     </row>
     <row r="39">
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3647,10 +3647,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>91.00671443664322</v>
       </c>
       <c r="Y39" t="n">
-        <v>62.43486741948623</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3681,40 +3681,40 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -3881,13 +3881,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,23 +3976,23 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4155,40 +4155,40 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89.01731535111452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>89.01731535111452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
         <v>19.28114311021272</v>
@@ -4418,43 +4418,43 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X3" t="n">
-        <v>257.2326523711826</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y3" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4515,10 +4515,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
         <v>19.28114311021272</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4600,16 +4600,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="X5" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="X5" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
         <v>262.7299197543128</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>185.0857710682603</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>82.77962309005554</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>82.77962309005554</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>82.77962309005554</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>82.77962309005554</v>
       </c>
       <c r="G6" t="n">
         <v>19.28114311021272</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>353.3011080883284</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>353.3011080883284</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>353.3011080883284</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y6" t="n">
-        <v>353.3011080883284</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="7">
@@ -4743,25 +4743,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4789,7 +4789,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U8" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V8" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W8" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X8" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="Y8" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="U8" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="V8" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W8" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X8" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>258.688372014889</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>258.688372014889</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>258.688372014889</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>258.688372014889</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>258.688372014889</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4892,7 +4892,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4919,16 +4919,16 @@
         <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>399.5118995681682</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W9" t="n">
-        <v>156.0631229240681</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>426.903709034957</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
         <v>19.28114311021272</v>
@@ -4995,19 +4995,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U11" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V11" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W11" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
         <v>19.28114311021272</v>
@@ -5123,19 +5123,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5147,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U12" t="n">
-        <v>735.8335372470253</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V12" t="n">
-        <v>500.6814290152826</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W12" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X12" t="n">
-        <v>257.2326523711826</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y12" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5223,7 +5223,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
         <v>19.28114311021272</v>
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F14" t="n">
         <v>262.7299197543128</v>
@@ -5311,19 +5311,19 @@
         <v>591.4512093066566</v>
       </c>
       <c r="U14" t="n">
-        <v>348.0024326625565</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V14" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W14" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5369,10 +5369,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5384,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U15" t="n">
-        <v>873.8576637710773</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V15" t="n">
-        <v>638.7055555393347</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W15" t="n">
-        <v>395.2567788952347</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X15" t="n">
-        <v>395.2567788952347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5463,16 +5463,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
         <v>19.28114311021272</v>
@@ -5539,16 +5539,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
         <v>262.7299197543128</v>
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
         <v>19.28114311021272</v>
@@ -5603,13 +5603,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5627,19 +5627,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>735.8335372470253</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V18" t="n">
-        <v>735.8335372470253</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W18" t="n">
-        <v>554.5854353412691</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X18" t="n">
-        <v>346.7339351357363</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>346.7339351357363</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
         <v>19.28114311021272</v>
@@ -5697,28 +5697,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>251.810259228364</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C20" t="n">
-        <v>251.810259228364</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D20" t="n">
-        <v>251.810259228364</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E20" t="n">
-        <v>251.810259228364</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F20" t="n">
-        <v>251.810259228364</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>495.259035872464</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>251.810259228364</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>251.810259228364</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X20" t="n">
-        <v>251.810259228364</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y20" t="n">
-        <v>251.810259228364</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="21">
@@ -5840,13 +5840,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5861,19 +5861,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>678.3417187247995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
         <v>19.28114311021272</v>
@@ -5940,19 +5940,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
         <v>19.28114311021272</v>
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
         <v>262.7299197543128</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>728.6161971483371</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6071,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6104,16 +6104,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X24" t="n">
-        <v>49.38115216564972</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>76.77296163243852</v>
       </c>
     </row>
     <row r="25">
@@ -6168,31 +6168,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U26" t="n">
-        <v>284.1276524520142</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
         <v>19.28114311021272</v>
@@ -6314,10 +6314,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6335,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>298.4948343740486</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W27" t="n">
-        <v>55.04605772994853</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="28">
@@ -6408,7 +6408,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
         <v>19.28114311021272</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>517.4848137278872</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U29" t="n">
-        <v>274.0360370837871</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,22 +6569,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>262.7299197543128</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W30" t="n">
-        <v>19.28114311021272</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
         <v>19.28114311021272</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
         <v>19.28114311021272</v>
@@ -6660,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,25 +6721,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>738.7078125165641</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U32" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>738.7078125165641</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
         <v>262.7299197543128</v>
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>118.3768995286228</v>
       </c>
       <c r="D33" t="n">
         <v>19.28114311021272</v>
@@ -6785,7 +6785,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
         <v>486.8488635328713</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>907.9201228328222</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>705.7335281915883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>470.5814199598456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>227.1326433157456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>292.8299288097498</v>
       </c>
     </row>
     <row r="34">
@@ -6879,28 +6879,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U35" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7025,43 +7025,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V36" t="n">
-        <v>298.4948343740486</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W36" t="n">
-        <v>55.04605772994853</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X36" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7134,7 +7134,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
         <v>19.28114311021272</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>366.1018663125844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U38" t="n">
-        <v>122.6530896684844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V38" t="n">
-        <v>122.6530896684844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W38" t="n">
-        <v>122.6530896684844</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X38" t="n">
-        <v>122.6530896684844</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y38" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7280,22 +7280,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V39" t="n">
-        <v>533.6469426057913</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W39" t="n">
-        <v>290.1981659616912</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X39" t="n">
-        <v>82.34666575615842</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
         <v>19.28114311021272</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
         <v>19.28114311021272</v>
@@ -7362,22 +7362,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>467.067986854209</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C41" t="n">
-        <v>467.067986854209</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D41" t="n">
-        <v>223.6192102101089</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E41" t="n">
-        <v>223.6192102101089</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7441,22 +7441,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X41" t="n">
-        <v>710.516763498309</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y41" t="n">
-        <v>710.516763498309</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7496,19 +7496,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="43">
@@ -7596,16 +7596,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7739,10 +7739,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7763,16 +7763,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
         <v>19.28114311021272</v>
@@ -7836,22 +7836,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>303.312501347746</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8692,10 +8692,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8771,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9017,13 +9017,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>371.3463732493024</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9251,16 +9251,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9488,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9719,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>382.1386950879875</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9962,13 +9962,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>382.1386950879875</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,10 +10433,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M33" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11144,7 +11144,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11153,13 +11153,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11387,13 +11387,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>244.7225752110828</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22594,22 +22594,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>78.40625504614599</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,13 +22688,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>201.1021466825878</v>
       </c>
     </row>
     <row r="4">
@@ -22755,13 +22755,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22801,7 +22801,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22840,19 +22840,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>8.56191730984861</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22877,7 +22877,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>74.48002198316625</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22913,19 +22913,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,10 +23029,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23065,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>13.3123961103355</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23159,16 +23159,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>70.35882518776063</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23263,16 +23263,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,28 +23302,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23345,10 +23345,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>67.1422986804247</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23387,13 +23387,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>121.6254758352848</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23463,10 +23463,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
@@ -23551,7 +23551,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>243.3324706909737</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23624,13 +23624,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>136.6438852588115</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23639,10 +23639,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23703,7 +23703,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>149.0074258151476</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23819,7 +23819,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23867,19 +23867,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>72.25936227422093</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23971,28 +23971,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>185.0989125581653</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>298.998522982632</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,28 +24013,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24101,13 +24101,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>150.1070334262686</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="22">
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="23">
@@ -24217,7 +24217,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24262,16 +24262,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>149.5179749360441</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>115.7915986513122</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24344,7 +24344,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.8070558482636</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24408,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24423,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24448,13 +24448,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24463,7 +24463,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>189.2921341996816</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24487,13 +24487,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>257.4082506688596</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24575,22 +24575,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>126.4722929345728</v>
       </c>
       <c r="X27" t="n">
-        <v>170.365719729939</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24648,10 +24648,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>262.9346646783187</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24697,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>316.5592023139553</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24809,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>136.2759056302994</v>
+        <v>150.1070334262686</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24973,16 +24973,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>181.0016451065613</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>139.5272757214993</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24998,10 +24998,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>49.34026671041281</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25046,19 +25046,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>116.107508752802</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>171.5597290184211</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25168,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25210,13 +25210,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>61.00025583355162</v>
+        <v>198.920084420089</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>138.0478248410352</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25408,10 +25408,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>108.137662477717</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>315.8939308547783</v>
       </c>
     </row>
     <row r="39">
@@ -25520,10 +25520,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>114.7662707668343</v>
       </c>
       <c r="Y39" t="n">
-        <v>143.2478283578181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25569,7 +25569,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>195.0896117727101</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25681,19 +25681,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25724,7 +25724,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>7.497060989136827</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25757,10 +25757,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25769,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,13 +25873,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>179.3857036041842</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26003,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26043,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26076,7 +26076,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125028</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490233.5289125025</v>
+        <v>490233.5289125026</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490233.5289125028</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490233.5289125026</v>
+        <v>490233.5289125025</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="C2" t="n">
+        <v>99696.40351879933</v>
+      </c>
+      <c r="D2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="E2" t="n">
+        <v>99696.40351879943</v>
+      </c>
+      <c r="F2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="G2" t="n">
+        <v>99696.40351879945</v>
+      </c>
+      <c r="H2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="C2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="D2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="E2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="F2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="G2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99696.40351879937</v>
-      </c>
       <c r="I2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="K2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="N2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879937</v>
       </c>
     </row>
     <row r="3">
@@ -26420,7 +26420,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
         <v>8547.111069342402</v>
@@ -26459,7 +26459,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50119.41846589286</v>
+        <v>-39123.20890785647</v>
       </c>
       <c r="C6" t="n">
-        <v>30650.01306565484</v>
+        <v>41646.22262369122</v>
       </c>
       <c r="D6" t="n">
-        <v>30650.01306565482</v>
+        <v>41646.22262369123</v>
       </c>
       <c r="E6" t="n">
-        <v>64277.61306565487</v>
+        <v>75273.82262369132</v>
       </c>
       <c r="F6" t="n">
-        <v>64277.6130656548</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="G6" t="n">
-        <v>64277.61306565483</v>
+        <v>75273.82262369133</v>
       </c>
       <c r="H6" t="n">
-        <v>64277.61306565484</v>
+        <v>75273.82262369129</v>
       </c>
       <c r="I6" t="n">
-        <v>64277.61306565484</v>
+        <v>75273.82262369127</v>
       </c>
       <c r="J6" t="n">
-        <v>1217.67046654859</v>
+        <v>12213.88002458504</v>
       </c>
       <c r="K6" t="n">
-        <v>64277.61306565484</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="L6" t="n">
-        <v>64277.61306565487</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="M6" t="n">
-        <v>64277.6130656548</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="N6" t="n">
-        <v>64277.61306565484</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="O6" t="n">
-        <v>64277.61306565487</v>
+        <v>75273.82262369126</v>
       </c>
       <c r="P6" t="n">
-        <v>64277.61306565486</v>
+        <v>75273.82262369126</v>
       </c>
     </row>
   </sheetData>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34786,7 +34786,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>161.1784674257276</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35184,7 +35184,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35260,10 +35260,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>240.0046611659691</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>240.0046611659691</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M33" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37393,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37873,13 +37873,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38107,13 +38107,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
